--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ani\selenium_projects\Team2_AssuredNinjas\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E1811-DB16-41A9-8E71-3CC584972299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
+    <workbookView windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="programModule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="BatchModule" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,6 +19,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,72 +28,532 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Scenarios</t>
   </si>
   <si>
+    <t>programDescription</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>programStatus</t>
+  </si>
+  <si>
     <t>Valid</t>
   </si>
   <si>
+    <t>JsJavaPrograming</t>
+  </si>
+  <si>
+    <t>JavaJs</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>programDescription</t>
-  </si>
-  <si>
-    <t>programName</t>
-  </si>
-  <si>
-    <t>programStatus</t>
-  </si>
-  <si>
-    <t>JsJavaPrograming</t>
-  </si>
-  <si>
-    <t>JavaJs</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Testing-0012</t>
   </si>
   <si>
+    <t>MissingValueInRequestBody</t>
+  </si>
+  <si>
     <t>Javs prog1</t>
   </si>
   <si>
+    <t>MissingValueInAdditionalField</t>
+  </si>
+  <si>
     <t>Active# 1</t>
   </si>
   <si>
-    <t>MissingValueInRequestBody</t>
-  </si>
-  <si>
-    <t>MissingValueInAdditionalField</t>
+    <t>batchDescription</t>
+  </si>
+  <si>
+    <t>batchName</t>
+  </si>
+  <si>
+    <t>batchStatus</t>
+  </si>
+  <si>
+    <t>batchNoOfClasses</t>
+  </si>
+  <si>
+    <t>update_batchDescription</t>
+  </si>
+  <si>
+    <t>update_batchName</t>
+  </si>
+  <si>
+    <t>updated_BatchStatus</t>
+  </si>
+  <si>
+    <t>updated_batchNoOfClasses</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting620</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-176</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-631</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-638</t>
+  </si>
+  <si>
+    <t>For postive flow</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting621</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-177</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-632</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-639</t>
+  </si>
+  <si>
+    <t>For no auth valida data</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting623</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-178</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-633</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-640</t>
+  </si>
+  <si>
+    <t>Negative-post-valid endpoint</t>
+  </si>
+  <si>
+    <t>Post scenarios</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting624</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-634</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-641</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-179</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-635</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-642</t>
+  </si>
+  <si>
+    <t>Invalid data for description</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting625</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-180</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-637</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-643</t>
+  </si>
+  <si>
+    <t>Inacjjjjjjjj</t>
+  </si>
+  <si>
+    <t>Invalid data for status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -108,24 +561,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,7 +938,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -207,26 +971,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -259,23 +1006,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,114 +1147,342 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079617B-323A-45A1-95E5-CB9189128ADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="25.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29990FA1-60D6-4476-8656-6A96C87D6A8E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="26.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="31.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="10.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="66.75" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="66.75" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="66.75" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="66.75" spans="1:11">
+      <c r="A6" s="3">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="39.6" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="programModule" sheetId="1" r:id="rId1"/>
-    <sheet name="BatchModule" sheetId="2" r:id="rId2"/>
+    <sheet name="BatchPostdata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Scenarios</t>
   </si>
@@ -72,115 +72,61 @@
     <t>Active# 1</t>
   </si>
   <si>
-    <t>batchDescription</t>
-  </si>
-  <si>
-    <t>batchName</t>
-  </si>
-  <si>
-    <t>batchStatus</t>
-  </si>
-  <si>
-    <t>batchNoOfClasses</t>
-  </si>
-  <si>
-    <t>update_batchDescription</t>
-  </si>
-  <si>
-    <t>update_batchName</t>
-  </si>
-  <si>
-    <t>updated_BatchStatus</t>
-  </si>
-  <si>
-    <t>updated_batchNoOfClasses</t>
-  </si>
-  <si>
-    <t>AutomationApiTesting620</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-176</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updated-631</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updatedPgm-638</t>
-  </si>
-  <si>
-    <t>For postive flow</t>
-  </si>
-  <si>
-    <t>AutomationApiTesting621</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-177</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updated-632</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updatedPgm-639</t>
-  </si>
-  <si>
-    <t>For no auth valida data</t>
-  </si>
-  <si>
-    <t>AutomationApiTesting623</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-178</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updated-633</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updatedPgm-640</t>
-  </si>
-  <si>
-    <t>Negative-post-valid endpoint</t>
-  </si>
-  <si>
-    <t>Post scenarios</t>
-  </si>
-  <si>
-    <t>AutomationApiTesting624</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updated-634</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updatedPgm-641</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-179</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updated-635</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updatedPgm-642</t>
-  </si>
-  <si>
-    <t>Invalid data for description</t>
-  </si>
-  <si>
-    <t>AutomationApiTesting625</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-180</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updated-637</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updatedPgm-643</t>
-  </si>
-  <si>
-    <t>Inacjjjjjjjj</t>
-  </si>
-  <si>
-    <t>Invalid data for status</t>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>BatchDescription</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>BatchStatus</t>
+  </si>
+  <si>
+    <t>ProgramId</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>BatchModule</t>
+  </si>
+  <si>
+    <t>Java Bootcamp</t>
+  </si>
+  <si>
+    <t>JavaBatch_101</t>
+  </si>
+  <si>
+    <t>Java Bootcamp2</t>
+  </si>
+  <si>
+    <t>Java SDET Program</t>
+  </si>
+  <si>
+    <t>Selenium Testing</t>
+  </si>
+  <si>
+    <t>SDET_Batch_102</t>
+  </si>
+  <si>
+    <t>Selenium Training</t>
+  </si>
+  <si>
+    <t>Python Training</t>
+  </si>
+  <si>
+    <t>PyBatch_103</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Python Automation</t>
   </si>
 </sst>
 </file>
@@ -193,7 +139,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +152,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -677,148 +616,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,24 +1185,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="26.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.77777777777778" customWidth="1"/>
-    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="31.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="10.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="16384" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:11">
@@ -1288,198 +1218,153 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66.75" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
+      <c r="F3" s="2">
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="66.75" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="15.15" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
+      <c r="F4" s="2">
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="66.75" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="15.15" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="66.75" spans="1:11">
-      <c r="A6" s="3">
-        <v>128</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="6" s="1" customFormat="1" ht="15.15" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="7" s="1" customFormat="1" ht="15.15" spans="1:11">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.15" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17640" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="programModule" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Scenarios</t>
   </si>
@@ -87,12 +87,6 @@
     <t>BatchStatus</t>
   </si>
   <si>
-    <t>ProgramId</t>
-  </si>
-  <si>
-    <t>ProgramName</t>
-  </si>
-  <si>
     <t>BatchModule</t>
   </si>
   <si>
@@ -102,19 +96,25 @@
     <t>JavaBatch_101</t>
   </si>
   <si>
-    <t>Java Bootcamp2</t>
-  </si>
-  <si>
-    <t>Java SDET Program</t>
-  </si>
-  <si>
-    <t>Selenium Testing</t>
-  </si>
-  <si>
-    <t>SDET_Batch_102</t>
-  </si>
-  <si>
-    <t>Selenium Training</t>
+    <t>Existing Batch Info</t>
+  </si>
+  <si>
+    <t>Java Bootcamp01</t>
+  </si>
+  <si>
+    <t>Missing mandatory fields</t>
+  </si>
+  <si>
+    <t>Invalid NoOfClasses Data</t>
+  </si>
+  <si>
+    <t>Automation Batch</t>
+  </si>
+  <si>
+    <t>InvalidTest</t>
+  </si>
+  <si>
+    <t>abc$%^</t>
   </si>
   <si>
     <t>Python Training</t>
@@ -126,7 +126,10 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>Python Automation</t>
+    <t>Update valid batch</t>
+  </si>
+  <si>
+    <t>QA_Team</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1185,18 +1188,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="26" customWidth="1"/>
+    <col min="1" max="16382" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1212,26 +1215,20 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="3">
         <v>25</v>
@@ -1239,132 +1236,131 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
-        <v>101</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.15" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
-        <v>102</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.15" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2">
-        <v>103</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.15" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15.15" spans="1:11">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.15" spans="1:11">
-      <c r="A8" s="2"/>
+    <row r="8" s="1" customFormat="1" ht="15.15" spans="1:9">
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15.15" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ani\selenium_projects\Team2_AssuredNinjas\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E1811-DB16-41A9-8E71-3CC584972299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B1DC0-AF04-4E3C-809B-611D00100D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
   </bookViews>
   <sheets>
     <sheet name="programModule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Scenarios</t>
   </si>
@@ -58,25 +59,28 @@
     <t>JsJavaPrograming</t>
   </si>
   <si>
-    <t>JavaJs</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
     <t>Testing-0012</t>
   </si>
   <si>
-    <t>Javs prog1</t>
-  </si>
-  <si>
-    <t>Active# 1</t>
-  </si>
-  <si>
     <t>MissingValueInRequestBody</t>
   </si>
   <si>
     <t>MissingValueInAdditionalField</t>
+  </si>
+  <si>
+    <t>JavaJs Ninja</t>
+  </si>
+  <si>
+    <t>codingrank</t>
+  </si>
+  <si>
+    <t>mchainpark</t>
+  </si>
+  <si>
+    <t>menloparkmallcenter</t>
   </si>
 </sst>
 </file>
@@ -431,7 +435,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,41 +479,35 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -518,6 +516,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0156936-DD37-4927-B652-D0EEE57BE1A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29990FA1-60D6-4476-8656-6A96C87D6A8E}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ani\selenium_projects\Team2_AssuredNinjas\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B1DC0-AF04-4E3C-809B-611D00100D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932DF047-F2CC-4223-A8CA-D8BCC22A6291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
   </bookViews>
   <sheets>
     <sheet name="programModule" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Scenarios</t>
   </si>
@@ -77,10 +77,37 @@
     <t>codingrank</t>
   </si>
   <si>
-    <t>mchainpark</t>
-  </si>
-  <si>
-    <t>menloparkmallcenter</t>
+    <t>UpdateProgramDescription</t>
+  </si>
+  <si>
+    <t>updateProgramName</t>
+  </si>
+  <si>
+    <t>UpdateProgramStatus</t>
+  </si>
+  <si>
+    <t>hackerarank</t>
+  </si>
+  <si>
+    <t>codeline</t>
+  </si>
+  <si>
+    <t>max clang1</t>
+  </si>
+  <si>
+    <t>Active 01</t>
+  </si>
+  <si>
+    <t>codetask</t>
+  </si>
+  <si>
+    <t>mindstuck</t>
+  </si>
+  <si>
+    <t>nonstaticname</t>
+  </si>
+  <si>
+    <t>parkassurecooker</t>
   </si>
 </sst>
 </file>
@@ -432,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079617B-323A-45A1-95E5-CB9189128ADF}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -444,9 +471,12 @@
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +489,17 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -468,13 +507,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -487,8 +535,17 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -498,13 +555,16 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>

--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ani\selenium_projects\Team2_AssuredNinjas\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932DF047-F2CC-4223-A8CA-D8BCC22A6291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A947D86E-FB81-4C0A-93C6-91DF8C290273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Scenarios</t>
   </si>
@@ -74,9 +74,6 @@
     <t>JavaJs Ninja</t>
   </si>
   <si>
-    <t>codingrank</t>
-  </si>
-  <si>
     <t>UpdateProgramDescription</t>
   </si>
   <si>
@@ -101,13 +98,25 @@
     <t>codetask</t>
   </si>
   <si>
-    <t>mindstuck</t>
-  </si>
-  <si>
-    <t>nonstaticname</t>
-  </si>
-  <si>
-    <t>parkassurecooker</t>
+    <t>updateNamePayload</t>
+  </si>
+  <si>
+    <t>piscatway</t>
+  </si>
+  <si>
+    <t>advancecodecenter</t>
+  </si>
+  <si>
+    <t>excelentjavacodingg</t>
+  </si>
+  <si>
+    <t>childlerncenter</t>
+  </si>
+  <si>
+    <t>pythonhackerrank</t>
+  </si>
+  <si>
+    <t>nonstaticcoding</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079617B-323A-45A1-95E5-CB9189128ADF}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,13 +499,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -504,19 +513,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -536,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -556,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -564,9 +573,23 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17640" activeTab="1"/>
+    <workbookView windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="programModule" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Scenarios</t>
   </si>
@@ -42,34 +42,64 @@
     <t>programStatus</t>
   </si>
   <si>
+    <t>UpdateProgramDescription</t>
+  </si>
+  <si>
+    <t>updateProgramName</t>
+  </si>
+  <si>
+    <t>UpdateProgramStatus</t>
+  </si>
+  <si>
     <t>Valid</t>
   </si>
   <si>
+    <t>codingrankghni</t>
+  </si>
+  <si>
+    <t>mindstuctklibgg</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>hackerarankering</t>
+  </si>
+  <si>
+    <t>nonstaticnamenn</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Testing-0012234</t>
+  </si>
+  <si>
+    <t>JavaJs Ninja</t>
+  </si>
+  <si>
+    <t>codeline</t>
+  </si>
+  <si>
+    <t>max clang1</t>
+  </si>
+  <si>
+    <t>Active 01</t>
+  </si>
+  <si>
+    <t>MissingValueInRequestBody</t>
+  </si>
+  <si>
     <t>JsJavaPrograming</t>
   </si>
   <si>
-    <t>JavaJs</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Testing-0012</t>
-  </si>
-  <si>
-    <t>MissingValueInRequestBody</t>
-  </si>
-  <si>
-    <t>Javs prog1</t>
+    <t>codetask</t>
   </si>
   <si>
     <t>MissingValueInAdditionalField</t>
   </si>
   <si>
-    <t>Active# 1</t>
+    <t>parkassurecookerrrrr</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -90,46 +120,49 @@
     <t>BatchModule</t>
   </si>
   <si>
+    <t>Java Bootcamperyessd</t>
+  </si>
+  <si>
+    <t>JavaBatch-101010</t>
+  </si>
+  <si>
+    <t>Existing Batch Info</t>
+  </si>
+  <si>
+    <t>Java Bootcamp01</t>
+  </si>
+  <si>
+    <t>Missing mandatory fields</t>
+  </si>
+  <si>
+    <t>Invalid NoOfClasses Data</t>
+  </si>
+  <si>
+    <t>Automation Batch</t>
+  </si>
+  <si>
+    <t>InvalidTest</t>
+  </si>
+  <si>
+    <t>abc$%^</t>
+  </si>
+  <si>
+    <t>Python Training</t>
+  </si>
+  <si>
+    <t>PyBatch-103</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Update valid batch</t>
+  </si>
+  <si>
     <t>Java Bootcamp</t>
   </si>
   <si>
-    <t>JavaBatch_101</t>
-  </si>
-  <si>
-    <t>Existing Batch Info</t>
-  </si>
-  <si>
-    <t>Java Bootcamp01</t>
-  </si>
-  <si>
-    <t>Missing mandatory fields</t>
-  </si>
-  <si>
-    <t>Invalid NoOfClasses Data</t>
-  </si>
-  <si>
-    <t>Automation Batch</t>
-  </si>
-  <si>
-    <t>InvalidTest</t>
-  </si>
-  <si>
-    <t>abc$%^</t>
-  </si>
-  <si>
-    <t>Python Training</t>
-  </si>
-  <si>
-    <t>PyBatch_103</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Update valid batch</t>
-  </si>
-  <si>
-    <t>QA_Team</t>
+    <t>QA-Team</t>
   </si>
 </sst>
 </file>
@@ -1095,88 +1128,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="27.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="25.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="20.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1188,179 +1247,161 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16382" width="26" customWidth="1"/>
+    <col min="1" max="16380" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="31.2" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    <row r="7" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.15" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.15" spans="1:9">
+    <row r="9" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/programBook.xlsx
+++ b/src/test/resources/testData/programBook.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ani\selenium_projects\Team2_AssuredNinjas\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subha\git\Team2_AssuredNinjas_L\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A947D86E-FB81-4C0A-93C6-91DF8C290273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF41031-BCEE-4D19-B9C6-9C6508ACD4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A2D91261-AFF6-46E2-95E7-14861063D73C}"/>
   </bookViews>
   <sheets>
     <sheet name="programModule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="classModule" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Scenarios</t>
   </si>
@@ -117,19 +117,82 @@
   </si>
   <si>
     <t>nonstaticcoding</t>
+  </si>
+  <si>
+    <t>batchId</t>
+  </si>
+  <si>
+    <t>classNo</t>
+  </si>
+  <si>
+    <t>classDate</t>
+  </si>
+  <si>
+    <t>classTopic</t>
+  </si>
+  <si>
+    <t>classStatus</t>
+  </si>
+  <si>
+    <t>classStaffId</t>
+  </si>
+  <si>
+    <t>classDescription</t>
+  </si>
+  <si>
+    <t>classComments</t>
+  </si>
+  <si>
+    <t>classNotes</t>
+  </si>
+  <si>
+    <t>classRecordingPath</t>
+  </si>
+  <si>
+    <t>classScheduledDates</t>
+  </si>
+  <si>
+    <t>2025-04-25T15:11:08.750Z</t>
+  </si>
+  <si>
+    <t>assuredNinjasfourone</t>
+  </si>
+  <si>
+    <t>U3718</t>
+  </si>
+  <si>
+    <t>Subha classDescription</t>
+  </si>
+  <si>
+    <t>classcreate comments</t>
+  </si>
+  <si>
+    <t>Subha Notes</t>
+  </si>
+  <si>
+    <t>D://Downloads</t>
+  </si>
+  <si>
+    <t>2025-05-25T15:11:08.750Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,10 +203,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -152,8 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,22 +564,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079617B-323A-45A1-95E5-CB9189128ADF}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -531,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -554,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -568,7 +662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -579,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -600,12 +694,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0156936-DD37-4927-B652-D0EEE57BE1A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="33.36328125" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="21.08984375" customWidth="1"/>
+    <col min="12" max="12" width="23.36328125" customWidth="1"/>
+    <col min="13" max="13" width="27.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12407</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -616,7 +804,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
